--- a/biology/Biologie cellulaire et moléculaire/Liaison_génétique/Liaison_génétique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Liaison_génétique/Liaison_génétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liaison_g%C3%A9n%C3%A9tique</t>
+          <t>Liaison_génétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liaison génétique (ou genetic linkage) est le fait que les valeurs de deux gènes différents ont tendance à être transmis ensemble d'un individu à sa descendance. Cela se produit s'ils sont situés sur le même chromosome et proches l'un de l'autre ; en termes techniques, si leurs locus, les secteurs de l'ADN où leurs allèles se trouvent, sont voisins.
 Une liaison génétique se distingue d'une liaison physique : deux gènes qui se trouvent sur le même chromosome sont physiquement liés, mais peuvent être génétiquement indépendants, on dit alors qu'ils sont syntènes. On mesure la distance entre gènes par une unité abstraite, le cM (centimorgans), correspondant à la probabilité que les deux gènes soient séparés par un crossing-over. Un ensemble de gènes liés forme un haplotype, qui permet d'étudier l'évolution et les mouvements des populations dans le temps, notamment l'origine de l'humanité[réf. souhaitée].
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liaison_g%C3%A9n%C3%A9tique</t>
+          <t>Liaison_génétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Théorie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En théorie, plus la distance entre deux locus de deux gènes est faible, moins il y a de risques qu'un enjambement ne les sépare lors de la méiose, donc moins le phénotype qui découlera des différents gamètes obtenus différera des phénotypes parentaux pour les caractères étudiés. Cette observation permet de déduire la distance génétique entre deux gènes. (Attention : il ne s'agit pas ici de la distance génétique mesurant la différence entre 2 génomes ; il s'agit bien d'une indépendance physique de 2 locus pour l'hérédité.)
 On détermine la distance génétique entre deux locus en étudiant la fréquence des phénotypes après un croisement :
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liaison_g%C3%A9n%C3%A9tique</t>
+          <t>Liaison_génétique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>LOD score</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À partir des probabilités de transmission des allèles de deux gènes observés dans la descendance, il est possible d'établir une valeur numérique qui quantifie le degré de liaison génétique, c'est le LOD score (acronyme anglophone de logarithm of odds, logarithme des probabilités) construit par Newton E. Morton.
 Le LOD score est défini comme le logarithme décimal du rapport de la probabilité d'observation d'une famille sous l'hypothèse d'une liaison d'une distance Q (ou Théta Θ, souvent utilisé) entre deux locus à la probabilité d'observation de cette même famille sous l'hypothèse d'indépendance (Q = 0.50) :
